--- a/medicine/Psychotrope/Thé_à_Singapour/Thé_à_Singapour.xlsx
+++ b/medicine/Psychotrope/Thé_à_Singapour/Thé_à_Singapour.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9_%C3%A0_Singapour</t>
+          <t>Thé_à_Singapour</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le thé à Singapour vient essentiellement des influences de la colonisation de la région par le Royaume-Uni.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9_%C3%A0_Singapour</t>
+          <t>Thé_à_Singapour</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première mention de l'afternoon tea qui soit conservée est l'organisation de cet événement à l'arrivée du bateau Maria Rickmers, le 7 juin 1892[1]. Le commerce avec la Chine a aussi influencé sa consommation[2].
-Le 24 décembre 1904, un prêtre conseille d'éviter de propager des rumeurs pendant l'afternoon tea. Alors qu'il vient d'arriver du Royaume-Uni, un journal local indique que la pratique n'est pas inconnue à Singapour[1]. Le thé semble venir de l'influence britannique essentiellement[1].
-Après la seconde guerre mondiale, les femmes britanniques vivant à Singapour continuent à consommer le thé de l'après-midi, mais les femmes autochtones ne semble pas suivre la pratique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première mention de l'afternoon tea qui soit conservée est l'organisation de cet événement à l'arrivée du bateau Maria Rickmers, le 7 juin 1892. Le commerce avec la Chine a aussi influencé sa consommation.
+Le 24 décembre 1904, un prêtre conseille d'éviter de propager des rumeurs pendant l'afternoon tea. Alors qu'il vient d'arriver du Royaume-Uni, un journal local indique que la pratique n'est pas inconnue à Singapour. Le thé semble venir de l'influence britannique essentiellement.
+Après la seconde guerre mondiale, les femmes britanniques vivant à Singapour continuent à consommer le thé de l'après-midi, mais les femmes autochtones ne semble pas suivre la pratique.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9_%C3%A0_Singapour</t>
+          <t>Thé_à_Singapour</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Consommation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Teh Tarik est un thé au lait ; le Teh Halila est la même recette avec du gingembre ajouté[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Teh Tarik est un thé au lait ; le Teh Halila est la même recette avec du gingembre ajouté.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Th%C3%A9_%C3%A0_Singapour</t>
+          <t>Thé_à_Singapour</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Demande</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les habitants de Singapour consomment en moyenne 372 grammes de thé par personne et par an, surtout du thé vert, du Teh Tarik et du thé aux perles[2].
-Un thé consommé à Singapour est le Tieguanyin. Il est cependant différent de celui consommé ailleurs et appelé Nanyang Tie Guanyin, d'après le nom donné en Chine à l'Asie du Sud-Est quand les coolies, qui boivent du thé, s'installent dans la région. Ce thé est ensuite importé, surtout depuis la Malaisie[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les habitants de Singapour consomment en moyenne 372 grammes de thé par personne et par an, surtout du thé vert, du Teh Tarik et du thé aux perles.
+Un thé consommé à Singapour est le Tieguanyin. Il est cependant différent de celui consommé ailleurs et appelé Nanyang Tie Guanyin, d'après le nom donné en Chine à l'Asie du Sud-Est quand les coolies, qui boivent du thé, s'installent dans la région. Ce thé est ensuite importé, surtout depuis la Malaisie.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Th%C3%A9_%C3%A0_Singapour</t>
+          <t>Thé_à_Singapour</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,10 +627,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Importation
-Singapour importe entre autres ses thés de la Papouasie-Nouvelle-Guinée et de la Malaisie[4]. Il importe la majorité de ses thés de Chine[2].
-Exportation
-Marques commerciales</t>
+          <t>Importation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Singapour importe entre autres ses thés de la Papouasie-Nouvelle-Guinée et de la Malaisie. Il importe la majorité de ses thés de Chine.
+</t>
         </is>
       </c>
     </row>
@@ -622,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Th%C3%A9_%C3%A0_Singapour</t>
+          <t>Thé_à_Singapour</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,6 +663,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
